--- a/survey_clean.xlsx
+++ b/survey_clean.xlsx
@@ -82,139 +82,139 @@
     <t>max_saving</t>
   </si>
   <si>
+    <t>Otro</t>
+  </si>
+  <si>
+    <t>Ciudad Lineal</t>
+  </si>
+  <si>
+    <t>B.Salamanca</t>
+  </si>
+  <si>
+    <t>Moratalaz</t>
+  </si>
+  <si>
+    <t>Tetuán</t>
+  </si>
+  <si>
+    <t>San Blás-Canillejas</t>
+  </si>
+  <si>
+    <t>Arganzuela</t>
+  </si>
+  <si>
+    <t>Fuencarral-El Pardo</t>
+  </si>
+  <si>
+    <t>Latina</t>
+  </si>
+  <si>
+    <t>Usera</t>
+  </si>
+  <si>
+    <t>Centro</t>
+  </si>
+  <si>
     <t>Carabanchel</t>
   </si>
   <si>
-    <t>Ciudad Lineal</t>
-  </si>
-  <si>
-    <t>Otro</t>
-  </si>
-  <si>
-    <t>Latina</t>
+    <t>Villa de Vallecas</t>
+  </si>
+  <si>
+    <t>Puente de Vallecas</t>
+  </si>
+  <si>
+    <t>Chamberí</t>
+  </si>
+  <si>
+    <t>Retiro</t>
+  </si>
+  <si>
+    <t>Vicálvaro</t>
+  </si>
+  <si>
+    <t>Barajas</t>
+  </si>
+  <si>
+    <t>Hortaleza</t>
   </si>
   <si>
     <t>Villaverde</t>
   </si>
   <si>
-    <t>Retiro</t>
-  </si>
-  <si>
-    <t>Arganzuela</t>
-  </si>
-  <si>
-    <t>Usera</t>
-  </si>
-  <si>
-    <t>Vicálvaro</t>
-  </si>
-  <si>
-    <t>Fuencarral-El Pardo</t>
+    <t>Chamartín</t>
   </si>
   <si>
     <t>Moncloa-Aravaca</t>
   </si>
   <si>
-    <t>Hortaleza</t>
-  </si>
-  <si>
-    <t>Tetuán</t>
-  </si>
-  <si>
-    <t>Chamberí</t>
-  </si>
-  <si>
-    <t>Moratalaz</t>
-  </si>
-  <si>
-    <t>Centro</t>
-  </si>
-  <si>
-    <t>Puente de Vallecas</t>
-  </si>
-  <si>
-    <t>San Blás-Canillejas</t>
-  </si>
-  <si>
-    <t>B.Salamanca</t>
-  </si>
-  <si>
-    <t>Barajas</t>
-  </si>
-  <si>
-    <t>Villa de Vallecas</t>
-  </si>
-  <si>
-    <t>Chamartín</t>
+    <t>elevator</t>
+  </si>
+  <si>
+    <t>porter</t>
+  </si>
+  <si>
+    <t>accessible housing</t>
+  </si>
+  <si>
+    <t>swimming_pool</t>
+  </si>
+  <si>
+    <t>Jardín</t>
+  </si>
+  <si>
+    <t>garage</t>
+  </si>
+  <si>
+    <t>air-conditioning</t>
+  </si>
+  <si>
+    <t>wardrobes</t>
   </si>
   <si>
     <t>terrace</t>
   </si>
   <si>
-    <t>garage</t>
-  </si>
-  <si>
-    <t>Jardín</t>
-  </si>
-  <si>
-    <t>air-conditioning</t>
-  </si>
-  <si>
     <t>storage room</t>
   </si>
   <si>
-    <t>accessible housing</t>
-  </si>
-  <si>
-    <t>elevator</t>
-  </si>
-  <si>
-    <t>swimming_pool</t>
-  </si>
-  <si>
-    <t>porter</t>
-  </si>
-  <si>
     <t>exterior</t>
   </si>
   <si>
     <t>public transport</t>
   </si>
   <si>
-    <t>wardrobes</t>
-  </si>
-  <si>
     <t>good services</t>
   </si>
   <si>
     <t>good status</t>
   </si>
   <si>
+    <t>to reform</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
-    <t>to reform</t>
+    <t>middle_floors</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> attic</t>
   </si>
   <si>
     <t xml:space="preserve"> house/chalet</t>
   </si>
   <si>
-    <t xml:space="preserve"> attic</t>
+    <t>house/chalet</t>
+  </si>
+  <si>
+    <t>attic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> middle_floors</t>
   </si>
   <si>
     <t>ground_floor</t>
-  </si>
-  <si>
-    <t>attic</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> middle_floors</t>
-  </si>
-  <si>
-    <t>middle_floors</t>
-  </si>
-  <si>
-    <t>house/chalet</t>
   </si>
   <si>
     <t>min_area</t>
@@ -1253,7 +1253,7 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
         <v>57</v>
@@ -1331,13 +1331,13 @@
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF2">
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -1430,19 +1430,19 @@
         <v>0</v>
       </c>
       <c r="BL2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN2">
         <v>0</v>
       </c>
       <c r="BO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
         <v>70</v>
@@ -1465,16 +1465,16 @@
         <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
         <v>56</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I3" t="s">
         <v>192</v>
@@ -1555,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -1630,13 +1630,13 @@
         <v>0</v>
       </c>
       <c r="BH3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK3">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="BO3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP3">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>127</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I4" t="s">
         <v>192</v>
@@ -1764,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM4">
         <v>0</v>
@@ -1797,13 +1797,13 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV4">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="AX4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ4">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="BB4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF4">
         <v>1</v>
@@ -1848,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK4">
         <v>0</v>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="BO4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP4">
         <v>0</v>
@@ -1958,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1973,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="AM5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN5">
         <v>0</v>
@@ -1997,10 +1997,10 @@
         <v>1</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2009,16 +2009,16 @@
         <v>0</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX5">
         <v>0</v>
@@ -2030,13 +2030,13 @@
         <v>1</v>
       </c>
       <c r="BA5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB5">
         <v>0</v>
       </c>
       <c r="BC5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD5">
         <v>1</v>
@@ -2057,25 +2057,25 @@
         <v>0</v>
       </c>
       <c r="BJ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK5">
         <v>0</v>
       </c>
       <c r="BL5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM5">
         <v>1</v>
       </c>
       <c r="BN5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO5">
         <v>0</v>
       </c>
       <c r="BP5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:70">
@@ -2095,13 +2095,13 @@
         <v>79</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
         <v>129</v>
       </c>
       <c r="H6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I6" t="s">
         <v>193</v>
@@ -2155,16 +2155,16 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -2179,22 +2179,22 @@
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI6">
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN6">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6">
         <v>1</v>
@@ -2233,22 +2233,22 @@
         <v>0</v>
       </c>
       <c r="AZ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF6">
         <v>1</v>
@@ -2257,10 +2257,10 @@
         <v>0</v>
       </c>
       <c r="BH6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ6">
         <v>0</v>
@@ -2272,10 +2272,10 @@
         <v>0</v>
       </c>
       <c r="BM6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO6">
         <v>0</v>
@@ -2361,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -2370,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -2385,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7">
         <v>0</v>
@@ -2394,19 +2394,19 @@
         <v>1</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
         <v>0</v>
       </c>
       <c r="AK7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN7">
         <v>0</v>
@@ -2424,10 +2424,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="AZ7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA7">
         <v>0</v>
@@ -2457,10 +2457,10 @@
         <v>0</v>
       </c>
       <c r="BD7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF7">
         <v>1</v>
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="BJ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK7">
         <v>1</v>
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="BM7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP7">
         <v>0</v>
@@ -2516,7 +2516,7 @@
         <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -2594,13 +2594,13 @@
         <v>0</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8">
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH8">
         <v>0</v>
@@ -2639,40 +2639,40 @@
         <v>0</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV8">
         <v>0</v>
       </c>
       <c r="AW8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX8">
         <v>0</v>
       </c>
       <c r="AY8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB8">
         <v>0</v>
       </c>
       <c r="BC8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD8">
         <v>1</v>
       </c>
       <c r="BE8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF8">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="BJ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK8">
         <v>1</v>
@@ -2696,13 +2696,13 @@
         <v>0</v>
       </c>
       <c r="BM8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP8">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD9">
         <v>1</v>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -2824,13 +2824,13 @@
         <v>0</v>
       </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN9">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ9">
         <v>0</v>
@@ -2848,13 +2848,13 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT9">
         <v>1</v>
       </c>
       <c r="AU9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV9">
         <v>0</v>
@@ -2866,25 +2866,25 @@
         <v>0</v>
       </c>
       <c r="AY9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA9">
         <v>0</v>
       </c>
       <c r="BB9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC9">
         <v>0</v>
       </c>
       <c r="BD9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF9">
         <v>1</v>
@@ -2893,13 +2893,13 @@
         <v>1</v>
       </c>
       <c r="BH9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK9">
         <v>1</v>
@@ -2908,13 +2908,13 @@
         <v>0</v>
       </c>
       <c r="BM9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP9">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -3027,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI10">
         <v>0</v>
@@ -3036,13 +3036,13 @@
         <v>0</v>
       </c>
       <c r="AK10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN10">
         <v>0</v>
@@ -3051,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ10">
         <v>0</v>
@@ -3060,13 +3060,13 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT10">
         <v>0</v>
       </c>
       <c r="AU10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV10">
         <v>0</v>
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="AY10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ10">
         <v>0</v>
@@ -3093,10 +3093,10 @@
         <v>0</v>
       </c>
       <c r="BD10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF10">
         <v>1</v>
@@ -3111,25 +3111,25 @@
         <v>0</v>
       </c>
       <c r="BJ10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK10">
         <v>0</v>
       </c>
       <c r="BL10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM10">
         <v>1</v>
       </c>
       <c r="BN10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO10">
         <v>0</v>
       </c>
       <c r="BP10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:70">
@@ -3146,7 +3146,7 @@
         <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
         <v>125</v>
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI11">
         <v>0</v>
@@ -3266,22 +3266,22 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT11">
         <v>0</v>
       </c>
       <c r="AU11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY11">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>0</v>
       </c>
       <c r="BA11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC11">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>1</v>
       </c>
       <c r="BJ11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK11">
         <v>0</v>
@@ -3326,7 +3326,7 @@
         <v>1</v>
       </c>
       <c r="BM11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN11">
         <v>0</v>
@@ -3412,16 +3412,16 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12">
         <v>0</v>
@@ -3430,25 +3430,25 @@
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG12">
         <v>0</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI12">
         <v>0</v>
       </c>
       <c r="AJ12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM12">
         <v>1</v>
@@ -3460,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ12">
         <v>0</v>
@@ -3526,19 +3526,19 @@
         <v>1</v>
       </c>
       <c r="BL12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM12">
         <v>1</v>
       </c>
       <c r="BN12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ12">
         <v>90</v>
@@ -3561,16 +3561,16 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G13" t="s">
         <v>136</v>
       </c>
       <c r="H13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I13" t="s">
         <v>192</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -3654,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="AJ13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK13">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="AU13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV13">
         <v>0</v>
@@ -3699,13 +3699,13 @@
         <v>0</v>
       </c>
       <c r="AY13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ13">
         <v>0</v>
       </c>
       <c r="BA13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB13">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="BD13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE13">
         <v>1</v>
@@ -3726,13 +3726,13 @@
         <v>0</v>
       </c>
       <c r="BH13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK13">
         <v>0</v>
@@ -3747,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="BO13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP13">
         <v>0</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
         <v>124</v>
@@ -3860,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="AH14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI14">
         <v>0</v>
@@ -3893,10 +3893,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="AW14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX14">
         <v>0</v>
@@ -3917,19 +3917,19 @@
         <v>0</v>
       </c>
       <c r="BA14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD14">
         <v>1</v>
       </c>
       <c r="BE14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF14">
         <v>1</v>
@@ -3938,10 +3938,10 @@
         <v>1</v>
       </c>
       <c r="BH14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ14">
         <v>1</v>
@@ -3985,13 +3985,13 @@
         <v>84</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" t="s">
         <v>56</v>
       </c>
       <c r="H15" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I15" t="s">
         <v>194</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15">
         <v>0</v>
@@ -4054,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="AC15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD15">
         <v>0</v>
@@ -4069,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI15">
         <v>0</v>
@@ -4078,10 +4078,10 @@
         <v>0</v>
       </c>
       <c r="AK15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM15">
         <v>1</v>
@@ -4093,16 +4093,16 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ15">
         <v>0</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT15">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="BH15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK15">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="BO15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP15">
         <v>0</v>
@@ -4317,37 +4317,37 @@
         <v>1</v>
       </c>
       <c r="AU16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX16">
         <v>1</v>
       </c>
       <c r="AY16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ16">
         <v>1</v>
       </c>
       <c r="BA16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC16">
         <v>1</v>
       </c>
       <c r="BD16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF16">
         <v>0</v>
@@ -4356,13 +4356,13 @@
         <v>1</v>
       </c>
       <c r="BH16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK16">
         <v>1</v>
@@ -4371,13 +4371,13 @@
         <v>0</v>
       </c>
       <c r="BM16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP16">
         <v>0</v>
@@ -4403,10 +4403,10 @@
         <v>76</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G17" t="s">
         <v>139</v>
@@ -4460,13 +4460,13 @@
         <v>1</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA17">
         <v>0</v>
@@ -4529,19 +4529,19 @@
         <v>1</v>
       </c>
       <c r="AU17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV17">
         <v>0</v>
       </c>
       <c r="AW17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ17">
         <v>1</v>
@@ -4550,10 +4550,10 @@
         <v>0</v>
       </c>
       <c r="BB17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD17">
         <v>0</v>
@@ -4568,10 +4568,10 @@
         <v>0</v>
       </c>
       <c r="BH17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ17">
         <v>1</v>
@@ -4580,19 +4580,19 @@
         <v>1</v>
       </c>
       <c r="BL17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM17">
         <v>1</v>
       </c>
       <c r="BN17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ17">
         <v>70</v>
@@ -4702,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI18">
         <v>0</v>
@@ -4717,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="AM18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN18">
         <v>0</v>
@@ -4732,13 +4732,13 @@
         <v>0</v>
       </c>
       <c r="AR18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4756,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="AZ18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA18">
         <v>0</v>
@@ -4768,10 +4768,10 @@
         <v>0</v>
       </c>
       <c r="BD18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF18">
         <v>1</v>
@@ -4833,7 +4833,7 @@
         <v>140</v>
       </c>
       <c r="H19" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I19" t="s">
         <v>194</v>
@@ -4881,13 +4881,13 @@
         <v>1</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA19">
         <v>0</v>
@@ -4911,7 +4911,7 @@
         <v>0</v>
       </c>
       <c r="AH19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI19">
         <v>0</v>
@@ -4944,16 +4944,16 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU19">
         <v>0</v>
       </c>
       <c r="AV19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW19">
         <v>0</v>
@@ -4962,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="AY19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ19">
         <v>0</v>
@@ -4971,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="BB19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC19">
         <v>0</v>
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="BL19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM19">
         <v>0</v>
@@ -5013,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="BP19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ19">
         <v>70</v>
@@ -5042,7 +5042,7 @@
         <v>132</v>
       </c>
       <c r="H20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I20" t="s">
         <v>192</v>
@@ -5096,31 +5096,31 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB20">
         <v>0</v>
       </c>
       <c r="AC20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD20">
         <v>1</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI20">
         <v>0</v>
@@ -5129,13 +5129,13 @@
         <v>0</v>
       </c>
       <c r="AK20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN20">
         <v>0</v>
@@ -5144,13 +5144,13 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ20">
         <v>0</v>
       </c>
       <c r="AR20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS20">
         <v>1</v>
@@ -5159,7 +5159,7 @@
         <v>1</v>
       </c>
       <c r="AU20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV20">
         <v>0</v>
@@ -5171,25 +5171,25 @@
         <v>0</v>
       </c>
       <c r="AY20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA20">
         <v>0</v>
       </c>
       <c r="BB20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC20">
         <v>0</v>
       </c>
       <c r="BD20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF20">
         <v>1</v>
@@ -5213,10 +5213,10 @@
         <v>0</v>
       </c>
       <c r="BM20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO20">
         <v>0</v>
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA21">
         <v>0</v>
@@ -5341,13 +5341,13 @@
         <v>0</v>
       </c>
       <c r="AK21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN21">
         <v>0</v>
@@ -5356,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ21">
         <v>0</v>
@@ -5365,13 +5365,13 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT21">
         <v>1</v>
       </c>
       <c r="AU21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV21">
         <v>0</v>
@@ -5383,16 +5383,16 @@
         <v>0</v>
       </c>
       <c r="AY21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ21">
         <v>1</v>
       </c>
       <c r="BA21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC21">
         <v>0</v>
@@ -5410,31 +5410,31 @@
         <v>1</v>
       </c>
       <c r="BH21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK21">
         <v>0</v>
       </c>
       <c r="BL21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM21">
         <v>1</v>
       </c>
       <c r="BN21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO21">
         <v>0</v>
       </c>
       <c r="BP21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ21">
         <v>90</v>
@@ -5466,7 +5466,7 @@
         <v>142</v>
       </c>
       <c r="H22" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I22" t="s">
         <v>194</v>
@@ -5523,13 +5523,13 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB22">
         <v>0</v>
       </c>
       <c r="AC22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD22">
         <v>0</v>
@@ -5538,7 +5538,7 @@
         <v>0</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG22">
         <v>0</v>
@@ -5577,25 +5577,25 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV22">
         <v>0</v>
       </c>
       <c r="AW22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX22">
         <v>0</v>
       </c>
       <c r="AY22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ22">
         <v>1</v>
@@ -5610,10 +5610,10 @@
         <v>0</v>
       </c>
       <c r="BD22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF22">
         <v>1</v>
@@ -5622,13 +5622,13 @@
         <v>1</v>
       </c>
       <c r="BH22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK22">
         <v>0</v>
@@ -5643,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="BO22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP22">
         <v>0</v>
@@ -5723,16 +5723,16 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA23">
         <v>0</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD23">
         <v>0</v>
@@ -5753,16 +5753,16 @@
         <v>0</v>
       </c>
       <c r="AJ23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN23">
         <v>0</v>
@@ -5771,22 +5771,22 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ23">
         <v>0</v>
       </c>
       <c r="AR23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV23">
         <v>0</v>
@@ -5798,16 +5798,16 @@
         <v>0</v>
       </c>
       <c r="AY23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ23">
         <v>0</v>
       </c>
       <c r="BA23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC23">
         <v>0</v>
@@ -5816,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="BE23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF23">
         <v>1</v>
@@ -5837,19 +5837,19 @@
         <v>0</v>
       </c>
       <c r="BL23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN23">
         <v>0</v>
       </c>
       <c r="BO23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ23">
         <v>90</v>
@@ -5959,10 +5959,10 @@
         <v>0</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ24">
         <v>0</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="AM24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN24">
         <v>0</v>
@@ -5983,19 +5983,19 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
         <v>0</v>
       </c>
       <c r="AR24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU24">
         <v>1</v>
@@ -6007,25 +6007,25 @@
         <v>0</v>
       </c>
       <c r="AX24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA24">
         <v>0</v>
       </c>
       <c r="BB24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC24">
         <v>1</v>
       </c>
       <c r="BD24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE24">
         <v>0</v>
@@ -6037,10 +6037,10 @@
         <v>1</v>
       </c>
       <c r="BH24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ24">
         <v>1</v>
@@ -6049,19 +6049,19 @@
         <v>1</v>
       </c>
       <c r="BL24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM24">
         <v>1</v>
       </c>
       <c r="BN24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ24">
         <v>90</v>
@@ -6138,13 +6138,13 @@
         <v>1</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25">
         <v>0</v>
@@ -6168,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="AH25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI25">
         <v>0</v>
@@ -6201,22 +6201,22 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU25">
         <v>0</v>
       </c>
       <c r="AV25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW25">
         <v>0</v>
       </c>
       <c r="AX25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY25">
         <v>0</v>
@@ -6228,13 +6228,13 @@
         <v>0</v>
       </c>
       <c r="BB25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE25">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1</v>
       </c>
       <c r="BJ25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK25">
         <v>0</v>
@@ -6261,7 +6261,7 @@
         <v>1</v>
       </c>
       <c r="BM25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN25">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>1</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA26">
         <v>0</v>
@@ -6380,19 +6380,19 @@
         <v>0</v>
       </c>
       <c r="AH26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ26">
         <v>0</v>
       </c>
       <c r="AK26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM26">
         <v>0</v>
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT26">
         <v>1</v>
@@ -6422,31 +6422,31 @@
         <v>0</v>
       </c>
       <c r="AV26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY26">
         <v>0</v>
       </c>
       <c r="AZ26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE26">
         <v>0</v>
@@ -6458,10 +6458,10 @@
         <v>1</v>
       </c>
       <c r="BH26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ26">
         <v>1</v>
@@ -6470,19 +6470,19 @@
         <v>1</v>
       </c>
       <c r="BL26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM26">
         <v>1</v>
       </c>
       <c r="BN26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ26">
         <v>90</v>
@@ -6514,7 +6514,7 @@
         <v>147</v>
       </c>
       <c r="H27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I27" t="s">
         <v>194</v>
@@ -6562,7 +6562,7 @@
         <v>1</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -6577,7 +6577,7 @@
         <v>0</v>
       </c>
       <c r="AC27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD27">
         <v>0</v>
@@ -6592,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="AH27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI27">
         <v>0</v>
@@ -6601,13 +6601,13 @@
         <v>0</v>
       </c>
       <c r="AK27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN27">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ27">
         <v>0</v>
@@ -6625,25 +6625,25 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT27">
         <v>0</v>
       </c>
       <c r="AU27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV27">
         <v>0</v>
       </c>
       <c r="AW27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX27">
         <v>0</v>
       </c>
       <c r="AY27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ27">
         <v>0</v>
@@ -6658,7 +6658,7 @@
         <v>0</v>
       </c>
       <c r="BD27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE27">
         <v>1</v>
@@ -6685,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="BM27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN27">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>0</v>
       </c>
       <c r="BP27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:70">
@@ -6720,7 +6720,7 @@
         <v>148</v>
       </c>
       <c r="H28" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I28" t="s">
         <v>192</v>
@@ -6801,7 +6801,7 @@
         <v>0</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ28">
         <v>0</v>
@@ -6822,19 +6822,19 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ28">
         <v>0</v>
       </c>
       <c r="AR28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -6843,7 +6843,7 @@
         <v>0</v>
       </c>
       <c r="AW28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX28">
         <v>0</v>
@@ -6855,16 +6855,16 @@
         <v>0</v>
       </c>
       <c r="BA28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE28">
         <v>0</v>
@@ -6882,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="BJ28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK28">
         <v>0</v>
@@ -6897,7 +6897,7 @@
         <v>0</v>
       </c>
       <c r="BO28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP28">
         <v>0</v>
@@ -6920,16 +6920,16 @@
         <v>76</v>
       </c>
       <c r="E29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G29" t="s">
         <v>149</v>
       </c>
       <c r="H29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I29" t="s">
         <v>194</v>
@@ -6977,13 +6977,13 @@
         <v>1</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA29">
         <v>0</v>
@@ -7049,13 +7049,13 @@
         <v>0</v>
       </c>
       <c r="AV29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW29">
         <v>1</v>
       </c>
       <c r="AX29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY29">
         <v>0</v>
@@ -7067,16 +7067,16 @@
         <v>1</v>
       </c>
       <c r="BB29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF29">
         <v>1</v>
@@ -7085,10 +7085,10 @@
         <v>0</v>
       </c>
       <c r="BH29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ29">
         <v>0</v>
@@ -7100,7 +7100,7 @@
         <v>0</v>
       </c>
       <c r="BM29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN29">
         <v>0</v>
@@ -7109,7 +7109,7 @@
         <v>0</v>
       </c>
       <c r="BP29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:70">
@@ -7129,13 +7129,13 @@
         <v>95</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G30" t="s">
         <v>150</v>
       </c>
       <c r="H30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I30" t="s">
         <v>194</v>
@@ -7183,13 +7183,13 @@
         <v>1</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA30">
         <v>0</v>
@@ -7228,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="AM30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN30">
         <v>0</v>
@@ -7246,7 +7246,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT30">
         <v>0</v>
@@ -7255,7 +7255,7 @@
         <v>0</v>
       </c>
       <c r="AV30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW30">
         <v>0</v>
@@ -7264,7 +7264,7 @@
         <v>0</v>
       </c>
       <c r="AY30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ30">
         <v>0</v>
@@ -7279,10 +7279,10 @@
         <v>0</v>
       </c>
       <c r="BD30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF30">
         <v>1</v>
@@ -7291,10 +7291,10 @@
         <v>0</v>
       </c>
       <c r="BH30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ30">
         <v>0</v>
@@ -7306,7 +7306,7 @@
         <v>0</v>
       </c>
       <c r="BM30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN30">
         <v>0</v>
@@ -7315,7 +7315,7 @@
         <v>0</v>
       </c>
       <c r="BP30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ30">
         <v>70</v>
@@ -7338,7 +7338,7 @@
         <v>76</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F31" t="s">
         <v>57</v>
@@ -7395,13 +7395,13 @@
         <v>1</v>
       </c>
       <c r="X31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA31">
         <v>0</v>
@@ -7464,25 +7464,25 @@
         <v>0</v>
       </c>
       <c r="AU31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ31">
         <v>0</v>
       </c>
       <c r="BA31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB31">
         <v>0</v>
@@ -7509,7 +7509,7 @@
         <v>0</v>
       </c>
       <c r="BJ31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK31">
         <v>0</v>
@@ -7518,7 +7518,7 @@
         <v>1</v>
       </c>
       <c r="BM31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN31">
         <v>0</v>
@@ -7556,7 +7556,7 @@
         <v>152</v>
       </c>
       <c r="H32" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I32" t="s">
         <v>192</v>
@@ -7604,22 +7604,22 @@
         <v>1</v>
       </c>
       <c r="X32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB32">
         <v>0</v>
       </c>
       <c r="AC32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD32">
         <v>0</v>
@@ -7628,7 +7628,7 @@
         <v>0</v>
       </c>
       <c r="AF32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG32">
         <v>0</v>
@@ -7649,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="AM32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN32">
         <v>0</v>
@@ -7670,10 +7670,10 @@
         <v>0</v>
       </c>
       <c r="AT32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV32">
         <v>0</v>
@@ -7685,7 +7685,7 @@
         <v>0</v>
       </c>
       <c r="AY32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ32">
         <v>0</v>
@@ -7694,16 +7694,16 @@
         <v>0</v>
       </c>
       <c r="BB32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD32">
         <v>1</v>
       </c>
       <c r="BE32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF32">
         <v>1</v>
@@ -7712,13 +7712,13 @@
         <v>1</v>
       </c>
       <c r="BH32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK32">
         <v>0</v>
@@ -7733,7 +7733,7 @@
         <v>0</v>
       </c>
       <c r="BO32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP32">
         <v>0</v>
@@ -7759,7 +7759,7 @@
         <v>76</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F33" t="s">
         <v>57</v>
@@ -7849,7 +7849,7 @@
         <v>0</v>
       </c>
       <c r="AI33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ33">
         <v>0</v>
@@ -7870,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ33">
         <v>0</v>
@@ -7888,7 +7888,7 @@
         <v>0</v>
       </c>
       <c r="AV33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW33">
         <v>0</v>
@@ -7897,13 +7897,13 @@
         <v>0</v>
       </c>
       <c r="AY33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ33">
         <v>0</v>
       </c>
       <c r="BA33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB33">
         <v>0</v>
@@ -7912,7 +7912,7 @@
         <v>0</v>
       </c>
       <c r="BD33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE33">
         <v>1</v>
@@ -7936,19 +7936,19 @@
         <v>1</v>
       </c>
       <c r="BL33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM33">
         <v>1</v>
       </c>
       <c r="BN33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ33">
         <v>50</v>
@@ -7977,7 +7977,7 @@
         <v>154</v>
       </c>
       <c r="H34" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I34" t="s">
         <v>192</v>
@@ -8025,7 +8025,7 @@
         <v>1</v>
       </c>
       <c r="X34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -8040,7 +8040,7 @@
         <v>0</v>
       </c>
       <c r="AC34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD34">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ34">
         <v>0</v>
@@ -8088,7 +8088,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT34">
         <v>1</v>
@@ -8106,10 +8106,10 @@
         <v>0</v>
       </c>
       <c r="AY34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA34">
         <v>0</v>
@@ -8133,13 +8133,13 @@
         <v>1</v>
       </c>
       <c r="BH34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK34">
         <v>0</v>
@@ -8154,7 +8154,7 @@
         <v>0</v>
       </c>
       <c r="BO34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP34">
         <v>0</v>
@@ -8180,16 +8180,16 @@
         <v>75</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G35" t="s">
         <v>155</v>
       </c>
       <c r="H35" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I35" t="s">
         <v>195</v>
@@ -8267,7 +8267,7 @@
         <v>0</v>
       </c>
       <c r="AH35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI35">
         <v>0</v>
@@ -8282,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="AM35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN35">
         <v>0</v>
@@ -8303,10 +8303,10 @@
         <v>0</v>
       </c>
       <c r="AT35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV35">
         <v>0</v>
@@ -8318,25 +8318,25 @@
         <v>0</v>
       </c>
       <c r="AY35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB35">
         <v>0</v>
       </c>
       <c r="BC35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF35">
         <v>0</v>
@@ -8345,13 +8345,13 @@
         <v>0</v>
       </c>
       <c r="BH35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK35">
         <v>0</v>
@@ -8366,7 +8366,7 @@
         <v>0</v>
       </c>
       <c r="BO35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP35">
         <v>0</v>
@@ -8392,7 +8392,7 @@
         <v>75</v>
       </c>
       <c r="E36" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F36" t="s">
         <v>57</v>
@@ -8401,7 +8401,7 @@
         <v>156</v>
       </c>
       <c r="H36" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I36" t="s">
         <v>192</v>
@@ -8449,13 +8449,13 @@
         <v>1</v>
       </c>
       <c r="X36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y36">
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA36">
         <v>0</v>
@@ -8515,7 +8515,7 @@
         <v>0</v>
       </c>
       <c r="AT36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU36">
         <v>0</v>
@@ -8533,10 +8533,10 @@
         <v>0</v>
       </c>
       <c r="AZ36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB36">
         <v>0</v>
@@ -8545,7 +8545,7 @@
         <v>0</v>
       </c>
       <c r="BD36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE36">
         <v>1</v>
@@ -8572,7 +8572,7 @@
         <v>0</v>
       </c>
       <c r="BM36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN36">
         <v>0</v>
@@ -8581,7 +8581,7 @@
         <v>0</v>
       </c>
       <c r="BP36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ36">
         <v>70</v>
@@ -8613,7 +8613,7 @@
         <v>157</v>
       </c>
       <c r="H37" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I37" t="s">
         <v>194</v>
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA37">
         <v>0</v>
@@ -8682,13 +8682,13 @@
         <v>0</v>
       </c>
       <c r="AE37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF37">
         <v>0</v>
       </c>
       <c r="AG37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH37">
         <v>0</v>
@@ -8715,7 +8715,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ37">
         <v>0</v>
@@ -8727,40 +8727,40 @@
         <v>0</v>
       </c>
       <c r="AT37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW37">
         <v>1</v>
       </c>
       <c r="AX37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ37">
         <v>1</v>
       </c>
       <c r="BA37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB37">
         <v>0</v>
       </c>
       <c r="BC37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD37">
         <v>1</v>
       </c>
       <c r="BE37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF37">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="BM37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN37">
         <v>0</v>
@@ -8793,7 +8793,7 @@
         <v>0</v>
       </c>
       <c r="BP37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:70">
@@ -8816,7 +8816,7 @@
         <v>158</v>
       </c>
       <c r="H38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I38" t="s">
         <v>192</v>
@@ -8870,7 +8870,7 @@
         <v>0</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA38">
         <v>0</v>
@@ -8879,7 +8879,7 @@
         <v>0</v>
       </c>
       <c r="AC38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD38">
         <v>0</v>
@@ -8894,7 +8894,7 @@
         <v>0</v>
       </c>
       <c r="AH38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI38">
         <v>0</v>
@@ -8903,13 +8903,13 @@
         <v>0</v>
       </c>
       <c r="AK38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN38">
         <v>0</v>
@@ -8918,7 +8918,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ38">
         <v>0</v>
@@ -8927,37 +8927,37 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV38">
         <v>0</v>
       </c>
       <c r="AW38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA38">
         <v>0</v>
       </c>
       <c r="BB38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD38">
         <v>0</v>
@@ -8987,7 +8987,7 @@
         <v>0</v>
       </c>
       <c r="BM38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN38">
         <v>0</v>
@@ -8996,7 +8996,7 @@
         <v>0</v>
       </c>
       <c r="BP38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ38">
         <v>70</v>
@@ -9019,13 +9019,13 @@
         <v>99</v>
       </c>
       <c r="F39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G39" t="s">
         <v>159</v>
       </c>
       <c r="H39" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I39" t="s">
         <v>194</v>
@@ -9079,7 +9079,7 @@
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA39">
         <v>0</v>
@@ -9088,22 +9088,22 @@
         <v>0</v>
       </c>
       <c r="AC39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD39">
         <v>0</v>
       </c>
       <c r="AE39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF39">
         <v>0</v>
       </c>
       <c r="AG39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI39">
         <v>0</v>
@@ -9112,13 +9112,13 @@
         <v>0</v>
       </c>
       <c r="AK39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN39">
         <v>0</v>
@@ -9127,7 +9127,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ39">
         <v>0</v>
@@ -9136,7 +9136,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT39">
         <v>0</v>
@@ -9157,22 +9157,22 @@
         <v>0</v>
       </c>
       <c r="AZ39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB39">
         <v>0</v>
       </c>
       <c r="BC39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD39">
         <v>1</v>
       </c>
       <c r="BE39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF39">
         <v>1</v>
@@ -9181,13 +9181,13 @@
         <v>0</v>
       </c>
       <c r="BH39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK39">
         <v>0</v>
@@ -9202,7 +9202,7 @@
         <v>0</v>
       </c>
       <c r="BO39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP39">
         <v>0</v>
@@ -9231,13 +9231,13 @@
         <v>100</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G40" t="s">
         <v>160</v>
       </c>
       <c r="H40" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I40" t="s">
         <v>192</v>
@@ -9285,7 +9285,7 @@
         <v>1</v>
       </c>
       <c r="X40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y40">
         <v>0</v>
@@ -9309,7 +9309,7 @@
         <v>0</v>
       </c>
       <c r="AF40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG40">
         <v>0</v>
@@ -9318,13 +9318,13 @@
         <v>0</v>
       </c>
       <c r="AI40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ40">
         <v>0</v>
       </c>
       <c r="AK40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL40">
         <v>1</v>
@@ -9336,13 +9336,13 @@
         <v>0</v>
       </c>
       <c r="AO40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP40">
         <v>0</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR40">
         <v>0</v>
@@ -9351,7 +9351,7 @@
         <v>0</v>
       </c>
       <c r="AT40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU40">
         <v>0</v>
@@ -9375,16 +9375,16 @@
         <v>0</v>
       </c>
       <c r="BB40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD40">
         <v>1</v>
       </c>
       <c r="BE40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF40">
         <v>1</v>
@@ -9393,13 +9393,13 @@
         <v>0</v>
       </c>
       <c r="BH40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK40">
         <v>0</v>
@@ -9414,7 +9414,7 @@
         <v>0</v>
       </c>
       <c r="BO40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP40">
         <v>0</v>
@@ -9506,10 +9506,10 @@
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC41">
         <v>0</v>
@@ -9533,10 +9533,10 @@
         <v>0</v>
       </c>
       <c r="AJ41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL41">
         <v>1</v>
@@ -9581,22 +9581,22 @@
         <v>0</v>
       </c>
       <c r="AZ41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA41">
         <v>0</v>
       </c>
       <c r="BB41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC41">
         <v>0</v>
       </c>
       <c r="BD41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF41">
         <v>0</v>
@@ -9605,13 +9605,13 @@
         <v>1</v>
       </c>
       <c r="BH41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK41">
         <v>1</v>
@@ -9620,13 +9620,13 @@
         <v>0</v>
       </c>
       <c r="BM41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP41">
         <v>0</v>
@@ -9715,7 +9715,7 @@
         <v>0</v>
       </c>
       <c r="AA42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB42">
         <v>0</v>
@@ -9730,13 +9730,13 @@
         <v>0</v>
       </c>
       <c r="AF42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG42">
         <v>0</v>
       </c>
       <c r="AH42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI42">
         <v>0</v>
@@ -9751,7 +9751,7 @@
         <v>0</v>
       </c>
       <c r="AM42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN42">
         <v>0</v>
@@ -9772,7 +9772,7 @@
         <v>0</v>
       </c>
       <c r="AT42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU42">
         <v>0</v>
@@ -9796,16 +9796,16 @@
         <v>0</v>
       </c>
       <c r="BB42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD42">
         <v>1</v>
       </c>
       <c r="BE42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF42">
         <v>1</v>
@@ -9820,25 +9820,25 @@
         <v>0</v>
       </c>
       <c r="BJ42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK42">
         <v>0</v>
       </c>
       <c r="BL42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM42">
         <v>1</v>
       </c>
       <c r="BN42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO42">
         <v>0</v>
       </c>
       <c r="BP42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ42">
         <v>90</v>
@@ -9867,7 +9867,7 @@
         <v>162</v>
       </c>
       <c r="H43" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I43" t="s">
         <v>192</v>
@@ -9924,13 +9924,13 @@
         <v>0</v>
       </c>
       <c r="AA43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB43">
         <v>0</v>
       </c>
       <c r="AC43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD43">
         <v>0</v>
@@ -9939,13 +9939,13 @@
         <v>0</v>
       </c>
       <c r="AF43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG43">
         <v>0</v>
       </c>
       <c r="AH43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI43">
         <v>0</v>
@@ -9954,10 +9954,10 @@
         <v>0</v>
       </c>
       <c r="AK43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM43">
         <v>1</v>
@@ -9975,28 +9975,28 @@
         <v>0</v>
       </c>
       <c r="AR43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT43">
         <v>1</v>
       </c>
       <c r="AU43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV43">
         <v>0</v>
       </c>
       <c r="AW43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX43">
         <v>0</v>
       </c>
       <c r="AY43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ43">
         <v>1</v>
@@ -10005,7 +10005,7 @@
         <v>0</v>
       </c>
       <c r="BB43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC43">
         <v>0</v>
@@ -10029,7 +10029,7 @@
         <v>0</v>
       </c>
       <c r="BJ43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK43">
         <v>0</v>
@@ -10044,7 +10044,7 @@
         <v>0</v>
       </c>
       <c r="BO43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP43">
         <v>0</v>
@@ -10079,7 +10079,7 @@
         <v>163</v>
       </c>
       <c r="H44" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I44" t="s">
         <v>194</v>
@@ -10157,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="AH44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI44">
         <v>0</v>
@@ -10166,10 +10166,10 @@
         <v>0</v>
       </c>
       <c r="AK44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM44">
         <v>0</v>
@@ -10190,19 +10190,19 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT44">
         <v>1</v>
       </c>
       <c r="AU44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV44">
         <v>0</v>
       </c>
       <c r="AW44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX44">
         <v>0</v>
@@ -10211,19 +10211,19 @@
         <v>0</v>
       </c>
       <c r="AZ44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB44">
         <v>1</v>
       </c>
       <c r="BC44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE44">
         <v>0</v>
@@ -10241,7 +10241,7 @@
         <v>0</v>
       </c>
       <c r="BJ44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK44">
         <v>0</v>
@@ -10256,7 +10256,7 @@
         <v>0</v>
       </c>
       <c r="BO44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP44">
         <v>0</v>
@@ -10285,13 +10285,13 @@
         <v>105</v>
       </c>
       <c r="F45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G45" t="s">
         <v>164</v>
       </c>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I45" t="s">
         <v>194</v>
@@ -10345,7 +10345,7 @@
         <v>0</v>
       </c>
       <c r="Z45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA45">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="AC45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD45">
         <v>0</v>
@@ -10384,7 +10384,7 @@
         <v>0</v>
       </c>
       <c r="AM45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN45">
         <v>0</v>
@@ -10393,7 +10393,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ45">
         <v>0</v>
@@ -10411,7 +10411,7 @@
         <v>1</v>
       </c>
       <c r="AV45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW45">
         <v>1</v>
@@ -10420,7 +10420,7 @@
         <v>1</v>
       </c>
       <c r="AY45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ45">
         <v>1</v>
@@ -10447,13 +10447,13 @@
         <v>0</v>
       </c>
       <c r="BH45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK45">
         <v>0</v>
@@ -10468,7 +10468,7 @@
         <v>0</v>
       </c>
       <c r="BO45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP45">
         <v>0</v>
@@ -10497,7 +10497,7 @@
         <v>106</v>
       </c>
       <c r="F46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G46" t="s">
         <v>165</v>
@@ -10551,7 +10551,7 @@
         <v>1</v>
       </c>
       <c r="X46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y46">
         <v>1</v>
@@ -10584,7 +10584,7 @@
         <v>0</v>
       </c>
       <c r="AI46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ46">
         <v>0</v>
@@ -10617,22 +10617,22 @@
         <v>0</v>
       </c>
       <c r="AT46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV46">
         <v>0</v>
       </c>
       <c r="AW46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX46">
         <v>0</v>
       </c>
       <c r="AY46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ46">
         <v>1</v>
@@ -10644,13 +10644,13 @@
         <v>0</v>
       </c>
       <c r="BC46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD46">
         <v>1</v>
       </c>
       <c r="BE46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF46">
         <v>1</v>
@@ -10659,13 +10659,13 @@
         <v>0</v>
       </c>
       <c r="BH46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK46">
         <v>1</v>
@@ -10674,13 +10674,13 @@
         <v>0</v>
       </c>
       <c r="BM46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP46">
         <v>0</v>
@@ -10769,7 +10769,7 @@
         <v>1</v>
       </c>
       <c r="Z47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA47">
         <v>0</v>
@@ -10778,7 +10778,7 @@
         <v>0</v>
       </c>
       <c r="AC47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD47">
         <v>0</v>
@@ -10802,13 +10802,13 @@
         <v>0</v>
       </c>
       <c r="AK47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN47">
         <v>0</v>
@@ -10817,16 +10817,16 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ47">
         <v>0</v>
       </c>
       <c r="AR47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT47">
         <v>1</v>
@@ -10847,19 +10847,19 @@
         <v>0</v>
       </c>
       <c r="AZ47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA47">
         <v>0</v>
       </c>
       <c r="BB47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE47">
         <v>0</v>
@@ -10871,13 +10871,13 @@
         <v>1</v>
       </c>
       <c r="BH47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK47">
         <v>1</v>
@@ -10886,13 +10886,13 @@
         <v>0</v>
       </c>
       <c r="BM47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP47">
         <v>0</v>
@@ -10915,16 +10915,16 @@
         <v>75</v>
       </c>
       <c r="E48" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G48" t="s">
         <v>167</v>
       </c>
       <c r="H48" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I48" t="s">
         <v>194</v>
@@ -10972,13 +10972,13 @@
         <v>1</v>
       </c>
       <c r="X48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y48">
         <v>0</v>
       </c>
       <c r="Z48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA48">
         <v>0</v>
@@ -11038,28 +11038,28 @@
         <v>0</v>
       </c>
       <c r="AT48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV48">
         <v>0</v>
       </c>
       <c r="AW48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB48">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>1</v>
       </c>
       <c r="BD48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE48">
         <v>0</v>
@@ -11080,13 +11080,13 @@
         <v>0</v>
       </c>
       <c r="BH48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK48">
         <v>0</v>
@@ -11101,7 +11101,7 @@
         <v>0</v>
       </c>
       <c r="BO48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP48">
         <v>0</v>
@@ -11130,13 +11130,13 @@
         <v>108</v>
       </c>
       <c r="F49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G49" t="s">
         <v>168</v>
       </c>
       <c r="H49" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I49" t="s">
         <v>192</v>
@@ -11190,7 +11190,7 @@
         <v>0</v>
       </c>
       <c r="Z49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA49">
         <v>0</v>
@@ -11199,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="AC49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD49">
         <v>0</v>
@@ -11229,7 +11229,7 @@
         <v>0</v>
       </c>
       <c r="AM49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN49">
         <v>0</v>
@@ -11238,22 +11238,22 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ49">
         <v>0</v>
       </c>
       <c r="AR49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT49">
         <v>1</v>
       </c>
       <c r="AU49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV49">
         <v>0</v>
@@ -11265,22 +11265,22 @@
         <v>0</v>
       </c>
       <c r="AY49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA49">
         <v>0</v>
       </c>
       <c r="BB49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE49">
         <v>0</v>
@@ -11292,13 +11292,13 @@
         <v>0</v>
       </c>
       <c r="BH49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK49">
         <v>0</v>
@@ -11313,7 +11313,7 @@
         <v>0</v>
       </c>
       <c r="BO49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP49">
         <v>0</v>
@@ -11402,7 +11402,7 @@
         <v>0</v>
       </c>
       <c r="Z50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA50">
         <v>0</v>
@@ -11411,7 +11411,7 @@
         <v>0</v>
       </c>
       <c r="AC50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD50">
         <v>0</v>
@@ -11435,10 +11435,10 @@
         <v>0</v>
       </c>
       <c r="AK50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM50">
         <v>1</v>
@@ -11450,7 +11450,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ50">
         <v>0</v>
@@ -11459,19 +11459,19 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV50">
         <v>0</v>
       </c>
       <c r="AW50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX50">
         <v>0</v>
@@ -11486,13 +11486,13 @@
         <v>0</v>
       </c>
       <c r="BB50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE50">
         <v>0</v>
@@ -11504,13 +11504,13 @@
         <v>1</v>
       </c>
       <c r="BH50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK50">
         <v>1</v>
@@ -11519,13 +11519,13 @@
         <v>0</v>
       </c>
       <c r="BM50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP50">
         <v>0</v>
@@ -11554,13 +11554,13 @@
         <v>110</v>
       </c>
       <c r="F51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G51" t="s">
         <v>170</v>
       </c>
       <c r="H51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I51" t="s">
         <v>192</v>
@@ -11614,7 +11614,7 @@
         <v>0</v>
       </c>
       <c r="Z51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA51">
         <v>0</v>
@@ -11623,7 +11623,7 @@
         <v>0</v>
       </c>
       <c r="AC51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD51">
         <v>0</v>
@@ -11638,7 +11638,7 @@
         <v>0</v>
       </c>
       <c r="AH51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI51">
         <v>0</v>
@@ -11647,13 +11647,13 @@
         <v>0</v>
       </c>
       <c r="AK51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN51">
         <v>0</v>
@@ -11662,19 +11662,19 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ51">
         <v>0</v>
       </c>
       <c r="AR51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS51">
         <v>1</v>
       </c>
       <c r="AT51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU51">
         <v>1</v>
@@ -11689,7 +11689,7 @@
         <v>0</v>
       </c>
       <c r="AY51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ51">
         <v>0</v>
@@ -11701,10 +11701,10 @@
         <v>1</v>
       </c>
       <c r="BC51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE51">
         <v>0</v>
@@ -11716,10 +11716,10 @@
         <v>0</v>
       </c>
       <c r="BH51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ51">
         <v>0</v>
@@ -11731,10 +11731,10 @@
         <v>0</v>
       </c>
       <c r="BM51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO51">
         <v>0</v>
@@ -11772,7 +11772,7 @@
         <v>171</v>
       </c>
       <c r="H52" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I52" t="s">
         <v>194</v>
@@ -11826,16 +11826,16 @@
         <v>0</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB52">
         <v>0</v>
       </c>
       <c r="AC52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD52">
         <v>0</v>
@@ -11844,7 +11844,7 @@
         <v>0</v>
       </c>
       <c r="AF52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG52">
         <v>0</v>
@@ -11859,13 +11859,13 @@
         <v>0</v>
       </c>
       <c r="AK52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN52">
         <v>0</v>
@@ -11874,40 +11874,40 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ52">
         <v>0</v>
       </c>
       <c r="AR52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV52">
         <v>0</v>
       </c>
       <c r="AW52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX52">
         <v>0</v>
       </c>
       <c r="AY52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB52">
         <v>0</v>
@@ -11916,10 +11916,10 @@
         <v>0</v>
       </c>
       <c r="BD52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF52">
         <v>0</v>
@@ -11934,7 +11934,7 @@
         <v>0</v>
       </c>
       <c r="BJ52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK52">
         <v>0</v>
@@ -11949,7 +11949,7 @@
         <v>0</v>
       </c>
       <c r="BO52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP52">
         <v>0</v>
@@ -11978,13 +11978,13 @@
         <v>112</v>
       </c>
       <c r="F53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G53" t="s">
         <v>172</v>
       </c>
       <c r="H53" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I53" t="s">
         <v>192</v>
@@ -12038,7 +12038,7 @@
         <v>0</v>
       </c>
       <c r="Z53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA53">
         <v>0</v>
@@ -12071,10 +12071,10 @@
         <v>0</v>
       </c>
       <c r="AK53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM53">
         <v>0</v>
@@ -12086,22 +12086,22 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ53">
         <v>0</v>
       </c>
       <c r="AR53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV53">
         <v>0</v>
@@ -12116,22 +12116,22 @@
         <v>0</v>
       </c>
       <c r="AZ53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF53">
         <v>1</v>
@@ -12140,13 +12140,13 @@
         <v>0</v>
       </c>
       <c r="BH53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK53">
         <v>0</v>
@@ -12161,7 +12161,7 @@
         <v>0</v>
       </c>
       <c r="BO53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP53">
         <v>0</v>
@@ -12250,7 +12250,7 @@
         <v>0</v>
       </c>
       <c r="Z54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA54">
         <v>0</v>
@@ -12259,22 +12259,22 @@
         <v>0</v>
       </c>
       <c r="AC54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD54">
         <v>0</v>
       </c>
       <c r="AE54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF54">
         <v>0</v>
       </c>
       <c r="AG54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI54">
         <v>0</v>
@@ -12283,13 +12283,13 @@
         <v>0</v>
       </c>
       <c r="AK54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN54">
         <v>0</v>
@@ -12298,7 +12298,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ54">
         <v>0</v>
@@ -12307,40 +12307,40 @@
         <v>0</v>
       </c>
       <c r="AS54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV54">
         <v>0</v>
       </c>
       <c r="AW54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ54">
         <v>0</v>
       </c>
       <c r="BA54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC54">
         <v>1</v>
       </c>
       <c r="BD54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE54">
         <v>0</v>
@@ -12352,31 +12352,31 @@
         <v>1</v>
       </c>
       <c r="BH54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK54">
         <v>0</v>
       </c>
       <c r="BL54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM54">
         <v>1</v>
       </c>
       <c r="BN54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO54">
         <v>0</v>
       </c>
       <c r="BP54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:70">
@@ -12480,7 +12480,7 @@
         <v>0</v>
       </c>
       <c r="AH55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI55">
         <v>0</v>
@@ -12489,10 +12489,10 @@
         <v>0</v>
       </c>
       <c r="AK55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM55">
         <v>0</v>
@@ -12510,34 +12510,34 @@
         <v>0</v>
       </c>
       <c r="AR55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS55">
         <v>1</v>
       </c>
       <c r="AT55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV55">
         <v>0</v>
       </c>
       <c r="AW55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX55">
         <v>0</v>
       </c>
       <c r="AY55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB55">
         <v>0</v>
@@ -12546,10 +12546,10 @@
         <v>0</v>
       </c>
       <c r="BD55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF55">
         <v>0</v>
@@ -12564,7 +12564,7 @@
         <v>0</v>
       </c>
       <c r="BJ55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK55">
         <v>1</v>
@@ -12573,13 +12573,13 @@
         <v>0</v>
       </c>
       <c r="BM55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP55">
         <v>0</v>
@@ -12668,7 +12668,7 @@
         <v>0</v>
       </c>
       <c r="AA56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB56">
         <v>0</v>
@@ -12680,19 +12680,19 @@
         <v>1</v>
       </c>
       <c r="AE56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF56">
         <v>0</v>
       </c>
       <c r="AG56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH56">
         <v>0</v>
       </c>
       <c r="AI56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ56">
         <v>0</v>
@@ -12701,7 +12701,7 @@
         <v>0</v>
       </c>
       <c r="AL56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM56">
         <v>0</v>
@@ -12713,16 +12713,16 @@
         <v>0</v>
       </c>
       <c r="AP56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ56">
         <v>0</v>
       </c>
       <c r="AR56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT56">
         <v>1</v>
@@ -12743,19 +12743,19 @@
         <v>0</v>
       </c>
       <c r="AZ56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC56">
         <v>0</v>
       </c>
       <c r="BD56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE56">
         <v>1</v>
@@ -12779,19 +12779,19 @@
         <v>1</v>
       </c>
       <c r="BL56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM56">
         <v>1</v>
       </c>
       <c r="BN56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ56">
         <v>70</v>
@@ -12823,7 +12823,7 @@
         <v>175</v>
       </c>
       <c r="H57" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I57" t="s">
         <v>194</v>
@@ -12892,16 +12892,16 @@
         <v>0</v>
       </c>
       <c r="AE57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF57">
         <v>0</v>
       </c>
       <c r="AG57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI57">
         <v>0</v>
@@ -12910,10 +12910,10 @@
         <v>0</v>
       </c>
       <c r="AK57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM57">
         <v>0</v>
@@ -12922,52 +12922,52 @@
         <v>0</v>
       </c>
       <c r="AO57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP57">
         <v>0</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS57">
         <v>1</v>
       </c>
       <c r="AT57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV57">
         <v>0</v>
       </c>
       <c r="AW57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX57">
         <v>0</v>
       </c>
       <c r="AY57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ57">
         <v>0</v>
       </c>
       <c r="BA57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE57">
         <v>0</v>
@@ -12985,7 +12985,7 @@
         <v>1</v>
       </c>
       <c r="BJ57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK57">
         <v>0</v>
@@ -13000,7 +13000,7 @@
         <v>0</v>
       </c>
       <c r="BO57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP57">
         <v>0</v>
@@ -13035,7 +13035,7 @@
         <v>176</v>
       </c>
       <c r="H58" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I58" t="s">
         <v>194</v>
@@ -13083,13 +13083,13 @@
         <v>1</v>
       </c>
       <c r="X58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y58">
         <v>0</v>
       </c>
       <c r="Z58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA58">
         <v>0</v>
@@ -13113,7 +13113,7 @@
         <v>0</v>
       </c>
       <c r="AH58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI58">
         <v>0</v>
@@ -13128,7 +13128,7 @@
         <v>0</v>
       </c>
       <c r="AM58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN58">
         <v>0</v>
@@ -13149,22 +13149,22 @@
         <v>0</v>
       </c>
       <c r="AT58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV58">
         <v>0</v>
       </c>
       <c r="AW58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ58">
         <v>1</v>
@@ -13176,13 +13176,13 @@
         <v>0</v>
       </c>
       <c r="BC58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF58">
         <v>0</v>
@@ -13191,13 +13191,13 @@
         <v>1</v>
       </c>
       <c r="BH58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK58">
         <v>0</v>
@@ -13212,7 +13212,7 @@
         <v>0</v>
       </c>
       <c r="BO58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP58">
         <v>0</v>
@@ -13301,7 +13301,7 @@
         <v>0</v>
       </c>
       <c r="Z59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA59">
         <v>0</v>
@@ -13310,7 +13310,7 @@
         <v>0</v>
       </c>
       <c r="AC59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD59">
         <v>1</v>
@@ -13325,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="AH59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI59">
         <v>0</v>
@@ -13334,10 +13334,10 @@
         <v>0</v>
       </c>
       <c r="AK59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM59">
         <v>1</v>
@@ -13349,7 +13349,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ59">
         <v>0</v>
@@ -13361,7 +13361,7 @@
         <v>0</v>
       </c>
       <c r="AT59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU59">
         <v>0</v>
@@ -13379,16 +13379,16 @@
         <v>0</v>
       </c>
       <c r="AZ59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB59">
         <v>0</v>
       </c>
       <c r="BC59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD59">
         <v>1</v>
@@ -13415,19 +13415,19 @@
         <v>0</v>
       </c>
       <c r="BL59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN59">
         <v>0</v>
       </c>
       <c r="BO59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ59">
         <v>90</v>
@@ -13450,10 +13450,10 @@
         <v>76</v>
       </c>
       <c r="E60" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G60" t="s">
         <v>178</v>
@@ -13507,13 +13507,13 @@
         <v>1</v>
       </c>
       <c r="X60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y60">
         <v>0</v>
       </c>
       <c r="Z60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA60">
         <v>0</v>
@@ -13573,13 +13573,13 @@
         <v>0</v>
       </c>
       <c r="AT60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW60">
         <v>1</v>
@@ -13588,25 +13588,25 @@
         <v>1</v>
       </c>
       <c r="AY60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF60">
         <v>1</v>
@@ -13615,13 +13615,13 @@
         <v>0</v>
       </c>
       <c r="BH60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK60">
         <v>1</v>
@@ -13633,7 +13633,7 @@
         <v>1</v>
       </c>
       <c r="BN60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO60">
         <v>0</v>
@@ -13731,22 +13731,22 @@
         <v>0</v>
       </c>
       <c r="AC61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD61">
         <v>0</v>
       </c>
       <c r="AE61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF61">
         <v>0</v>
       </c>
       <c r="AG61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI61">
         <v>0</v>
@@ -13755,13 +13755,13 @@
         <v>0</v>
       </c>
       <c r="AK61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN61">
         <v>0</v>
@@ -13776,16 +13776,16 @@
         <v>0</v>
       </c>
       <c r="AR61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS61">
         <v>1</v>
       </c>
       <c r="AT61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV61">
         <v>0</v>
@@ -13797,7 +13797,7 @@
         <v>0</v>
       </c>
       <c r="AY61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ61">
         <v>0</v>
@@ -13806,7 +13806,7 @@
         <v>0</v>
       </c>
       <c r="BB61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC61">
         <v>0</v>
@@ -13836,19 +13836,19 @@
         <v>1</v>
       </c>
       <c r="BL61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM61">
         <v>1</v>
       </c>
       <c r="BN61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ61">
         <v>90</v>
@@ -13874,7 +13874,7 @@
         <v>119</v>
       </c>
       <c r="F62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G62" t="s">
         <v>180</v>
@@ -13928,7 +13928,7 @@
         <v>1</v>
       </c>
       <c r="X62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y62">
         <v>0</v>
@@ -13943,7 +13943,7 @@
         <v>0</v>
       </c>
       <c r="AC62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD62">
         <v>0</v>
@@ -13958,7 +13958,7 @@
         <v>0</v>
       </c>
       <c r="AH62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI62">
         <v>0</v>
@@ -13973,7 +13973,7 @@
         <v>0</v>
       </c>
       <c r="AM62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN62">
         <v>0</v>
@@ -13982,7 +13982,7 @@
         <v>0</v>
       </c>
       <c r="AP62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ62">
         <v>0</v>
@@ -13991,25 +13991,25 @@
         <v>0</v>
       </c>
       <c r="AS62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW62">
         <v>0</v>
       </c>
       <c r="AX62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ62">
         <v>0</v>
@@ -14018,13 +14018,13 @@
         <v>0</v>
       </c>
       <c r="BB62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE62">
         <v>0</v>
@@ -14036,31 +14036,31 @@
         <v>0</v>
       </c>
       <c r="BH62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK62">
         <v>0</v>
       </c>
       <c r="BL62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM62">
         <v>1</v>
       </c>
       <c r="BN62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO62">
         <v>0</v>
       </c>
       <c r="BP62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ62">
         <v>70</v>
@@ -14143,7 +14143,7 @@
         <v>0</v>
       </c>
       <c r="Z63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA63">
         <v>0</v>
@@ -14152,7 +14152,7 @@
         <v>0</v>
       </c>
       <c r="AC63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD63">
         <v>0</v>
@@ -14176,10 +14176,10 @@
         <v>0</v>
       </c>
       <c r="AK63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM63">
         <v>1</v>
@@ -14191,13 +14191,13 @@
         <v>0</v>
       </c>
       <c r="AP63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ63">
         <v>0</v>
       </c>
       <c r="AR63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS63">
         <v>1</v>
@@ -14206,7 +14206,7 @@
         <v>1</v>
       </c>
       <c r="AU63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV63">
         <v>0</v>
@@ -14218,25 +14218,25 @@
         <v>0</v>
       </c>
       <c r="AY63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA63">
         <v>0</v>
       </c>
       <c r="BB63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD63">
         <v>1</v>
       </c>
       <c r="BE63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF63">
         <v>1</v>
@@ -14245,31 +14245,31 @@
         <v>1</v>
       </c>
       <c r="BH63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK63">
         <v>0</v>
       </c>
       <c r="BL63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM63">
         <v>1</v>
       </c>
       <c r="BN63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO63">
         <v>0</v>
       </c>
       <c r="BP63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ63">
         <v>50</v>
@@ -14358,7 +14358,7 @@
         <v>0</v>
       </c>
       <c r="AA64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB64">
         <v>0</v>
@@ -14373,7 +14373,7 @@
         <v>0</v>
       </c>
       <c r="AF64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG64">
         <v>0</v>
@@ -14382,43 +14382,43 @@
         <v>0</v>
       </c>
       <c r="AI64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK64">
         <v>0</v>
       </c>
       <c r="AL64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM64">
         <v>0</v>
       </c>
       <c r="AN64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO64">
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ64">
         <v>0</v>
       </c>
       <c r="AR64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS64">
         <v>0</v>
       </c>
       <c r="AT64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV64">
         <v>0</v>
@@ -14430,10 +14430,10 @@
         <v>0</v>
       </c>
       <c r="AY64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA64">
         <v>0</v>
@@ -14445,10 +14445,10 @@
         <v>0</v>
       </c>
       <c r="BD64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF64">
         <v>1</v>
@@ -14457,10 +14457,10 @@
         <v>1</v>
       </c>
       <c r="BH64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ64">
         <v>1</v>
@@ -14469,19 +14469,19 @@
         <v>0</v>
       </c>
       <c r="BL64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN64">
         <v>0</v>
       </c>
       <c r="BO64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ64">
         <v>70</v>
@@ -14582,19 +14582,19 @@
         <v>0</v>
       </c>
       <c r="AE65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF65">
         <v>0</v>
       </c>
       <c r="AG65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH65">
         <v>0</v>
       </c>
       <c r="AI65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ65">
         <v>0</v>
@@ -14615,19 +14615,19 @@
         <v>0</v>
       </c>
       <c r="AP65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ65">
         <v>0</v>
       </c>
       <c r="AR65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU65">
         <v>0</v>
@@ -14645,7 +14645,7 @@
         <v>0</v>
       </c>
       <c r="AZ65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA65">
         <v>0</v>
@@ -14654,13 +14654,13 @@
         <v>0</v>
       </c>
       <c r="BC65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD65">
         <v>1</v>
       </c>
       <c r="BE65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF65">
         <v>1</v>
@@ -14669,10 +14669,10 @@
         <v>1</v>
       </c>
       <c r="BH65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ65">
         <v>1</v>
@@ -14681,19 +14681,19 @@
         <v>0</v>
       </c>
       <c r="BL65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN65">
         <v>0</v>
       </c>
       <c r="BO65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ65">
         <v>70</v>
@@ -14722,7 +14722,7 @@
         <v>184</v>
       </c>
       <c r="H66" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I66" t="s">
         <v>192</v>
@@ -14785,7 +14785,7 @@
         <v>0</v>
       </c>
       <c r="AC66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD66">
         <v>0</v>
@@ -14800,7 +14800,7 @@
         <v>0</v>
       </c>
       <c r="AH66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI66">
         <v>0</v>
@@ -14809,10 +14809,10 @@
         <v>0</v>
       </c>
       <c r="AK66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM66">
         <v>1</v>
@@ -14836,7 +14836,7 @@
         <v>0</v>
       </c>
       <c r="AT66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU66">
         <v>0</v>
@@ -14860,16 +14860,16 @@
         <v>0</v>
       </c>
       <c r="BB66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC66">
         <v>0</v>
       </c>
       <c r="BD66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF66">
         <v>1</v>
@@ -14893,10 +14893,10 @@
         <v>0</v>
       </c>
       <c r="BM66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO66">
         <v>0</v>
